--- a/tabulka.xlsx
+++ b/tabulka.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">Jméno</t>
   </si>
@@ -41,25 +41,28 @@
     <t xml:space="preserve">Celkem zaplatí</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">dsgdfgfgdf</t>
   </si>
   <si>
     <t xml:space="preserve">10.0 kWh</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0 Kč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.00 Kč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.00 Kč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blabla</t>
+    <t xml:space="preserve">33.3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 Kč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33 Kč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00 Kč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfdsgdsgds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfsdfgds</t>
   </si>
 </sst>
 </file>
@@ -405,6 +408,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
